--- a/backend/mapping.xlsx
+++ b/backend/mapping.xlsx
@@ -5,18 +5,21 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Orange\Downloads\New folder (40)\ExecutiveDashboard\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Orange\Desktop\oragne sales dashboard\dailysales\backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{54ABE442-2B5F-479E-823A-10AD7408F4D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69DF0F1C-E8AC-46DD-AF5D-A1D0F0C3EE3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A7FF015C-39FD-477A-B29D-453D44722474}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A7FF015C-39FD-477A-B29D-453D44722474}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$50</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$48</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="124">
   <si>
     <t>outlet</t>
   </si>
@@ -119,12 +122,6 @@
     <t>1012</t>
   </si>
   <si>
-    <t>PLATFORMS</t>
-  </si>
-  <si>
-    <t>1013</t>
-  </si>
-  <si>
     <t>12-Al_Hamra Mall</t>
   </si>
   <si>
@@ -281,12 +278,6 @@
     <t>1901</t>
   </si>
   <si>
-    <t>41-Khamis Avenue</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
     <t>43-Mujan Park</t>
   </si>
   <si>
@@ -339,6 +330,90 @@
   </si>
   <si>
     <t>2401</t>
+  </si>
+  <si>
+    <t>target</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>جدة</t>
+  </si>
+  <si>
+    <t>الرياض</t>
+  </si>
+  <si>
+    <t>مكة</t>
+  </si>
+  <si>
+    <t>الطائف</t>
+  </si>
+  <si>
+    <t>المدينة</t>
+  </si>
+  <si>
+    <t>ينبع</t>
+  </si>
+  <si>
+    <t>الاحساء</t>
+  </si>
+  <si>
+    <t>عرعر</t>
+  </si>
+  <si>
+    <t>حائل</t>
+  </si>
+  <si>
+    <t>ابها</t>
+  </si>
+  <si>
+    <t>تبوك</t>
+  </si>
+  <si>
+    <t>المنطقة الشرقية</t>
+  </si>
+  <si>
+    <t>الجوف</t>
+  </si>
+  <si>
+    <t>القصيم</t>
+  </si>
+  <si>
+    <t>عبيدة السباعي</t>
+  </si>
+  <si>
+    <t>شريفة العمري</t>
+  </si>
+  <si>
+    <t>المنطقة الغربية</t>
+  </si>
+  <si>
+    <t>محمدكلو</t>
+  </si>
+  <si>
+    <t xml:space="preserve">عبد الجليل الحبال </t>
+  </si>
+  <si>
+    <t>عبدالله السرداح</t>
+  </si>
+  <si>
+    <t>رضوان عطيوي</t>
+  </si>
+  <si>
+    <t>منطقة الطائف</t>
+  </si>
+  <si>
+    <t>خليل الصانع</t>
+  </si>
+  <si>
+    <t>جهاد ايوبي</t>
+  </si>
+  <si>
+    <t>اماني عسيري</t>
   </si>
 </sst>
 </file>
@@ -391,6 +466,569 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="تقرير المبيعات العام"/>
+      <sheetName val="م.الوسطى-عبد الجليل الحبال"/>
+      <sheetName val="م.الشمالية-خليل الصانع"/>
+      <sheetName val="م.الوسطى-عبد الله السرداح"/>
+      <sheetName val="م.الغربية-عبيدة السباعي"/>
+      <sheetName val="م.الغربية"/>
+      <sheetName val="م.الوسطى-محمد كلو"/>
+      <sheetName val="م.الشرقية-جهاد ايوبي"/>
+      <sheetName val="م.الجنوبية-اماني عسيري"/>
+      <sheetName val="م.مكة-رضوان عطيوي"/>
+      <sheetName val="م.الطائف"/>
+      <sheetName val="م.الغربية-شريفة العمري"/>
+      <sheetName val="م.الاونلاين"/>
+      <sheetName val="AREA MANAGER "/>
+      <sheetName val="DATE"/>
+      <sheetName val="Target"/>
+      <sheetName val="VISTOR 2024"/>
+      <sheetName val="SALES"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15">
+        <row r="1">
+          <cell r="B1" t="str">
+            <v>المعرض</v>
+          </cell>
+          <cell r="E1" t="str">
+            <v>تارجت المعرض</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="B2" t="str">
+            <v>11-Jouri Mall</v>
+          </cell>
+          <cell r="E2">
+            <v>370000</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="B3" t="str">
+            <v>14-Al Kamal Mall</v>
+          </cell>
+          <cell r="E3">
+            <v>175000</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="B4" t="str">
+            <v>TOTAL</v>
+          </cell>
+          <cell r="E4">
+            <v>545000</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="B6" t="str">
+            <v>12-Al_Hamra Mall</v>
+          </cell>
+          <cell r="E6">
+            <v>680000</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="B7" t="str">
+            <v>29-Al Nakheel Mall Riyadh</v>
+          </cell>
+          <cell r="E7">
+            <v>920000</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="B8" t="str">
+            <v>32-Atyaf Mall Riyadh</v>
+          </cell>
+          <cell r="E8">
+            <v>260000</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="B9" t="str">
+            <v>38-Al_Riyadh Park</v>
+          </cell>
+          <cell r="E9">
+            <v>660000</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="B10" t="str">
+            <v>45- Riyadh Gallery Mall</v>
+          </cell>
+          <cell r="E10">
+            <v>530000</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="B11" t="str">
+            <v>46-Khaleej Mall Riyadh</v>
+          </cell>
+          <cell r="E11">
+            <v>530000</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="B12" t="str">
+            <v>51-Park Avenue Riyadh</v>
+          </cell>
+          <cell r="E12">
+            <v>530000</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="B13" t="str">
+            <v>TOTAL</v>
+          </cell>
+          <cell r="E13">
+            <v>4110000</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="B15" t="str">
+            <v>04-Andalos Mall</v>
+          </cell>
+          <cell r="E15">
+            <v>680000</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="B16" t="str">
+            <v>09-Al-Salam Mall</v>
+          </cell>
+          <cell r="E16">
+            <v>360000</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="B17" t="str">
+            <v>18-Al_Khayyat Center</v>
+          </cell>
+          <cell r="E17">
+            <v>330000</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="B18" t="str">
+            <v>53-Al Basateen Mall</v>
+          </cell>
+          <cell r="E18">
+            <v>135000</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="B19" t="str">
+            <v>57-Sauq7</v>
+          </cell>
+          <cell r="E19">
+            <v>220000</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="B20" t="str">
+            <v>TOTAL</v>
+          </cell>
+          <cell r="E20">
+            <v>1725000</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="B22" t="str">
+            <v>19-Hail Othaim Mall</v>
+          </cell>
+          <cell r="E22">
+            <v>390000</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="B23" t="str">
+            <v>30-Tala Mall Riyadh</v>
+          </cell>
+          <cell r="E23">
+            <v>300000</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="B24" t="str">
+            <v>40-Hayat Mall Riyad</v>
+          </cell>
+          <cell r="E24">
+            <v>360000</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="B25" t="str">
+            <v>47-Al-Nakheel Plaza</v>
+          </cell>
+          <cell r="E25">
+            <v>400000</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="B26" t="str">
+            <v>TOTAL</v>
+          </cell>
+          <cell r="E26">
+            <v>1450000</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="B28" t="str">
+            <v>15-Riyadh Othaim Mall</v>
+          </cell>
+          <cell r="E28">
+            <v>270000</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="B29" t="str">
+            <v>25-Rabwa Othaim Mall</v>
+          </cell>
+          <cell r="E29">
+            <v>270000</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="B30" t="str">
+            <v>39-Salam Mall Riyadh</v>
+          </cell>
+          <cell r="E30">
+            <v>330000</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="B31" t="str">
+            <v>50-Meem Plaza Riyadh</v>
+          </cell>
+          <cell r="E31">
+            <v>500000</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="B32" t="str">
+            <v>TOTAL</v>
+          </cell>
+          <cell r="E32">
+            <v>1370000</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="B34" t="str">
+            <v>05-Haifa Mall</v>
+          </cell>
+          <cell r="E34">
+            <v>280000</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="B35" t="str">
+            <v>07-Arab Mall</v>
+          </cell>
+          <cell r="E35">
+            <v>600000</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="B36" t="str">
+            <v>48 - Jeddah Park</v>
+          </cell>
+          <cell r="E36">
+            <v>620000</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="B37" t="str">
+            <v>56- Aziz Mall 2</v>
+          </cell>
+          <cell r="E37">
+            <v>350000</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="B38" t="str">
+            <v>TOTAL</v>
+          </cell>
+          <cell r="E38">
+            <v>1850000</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="B40" t="str">
+            <v>08-Makkah Mall</v>
+          </cell>
+          <cell r="E40">
+            <v>990000</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="B41" t="str">
+            <v>20-Sitten Street Makkah</v>
+          </cell>
+          <cell r="E41">
+            <v>380000</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="B42" t="str">
+            <v>55- Jabl Omar</v>
+          </cell>
+          <cell r="E42">
+            <v>370000</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="B43" t="str">
+            <v>TOTAL</v>
+          </cell>
+          <cell r="E43">
+            <v>1740000</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="B45" t="str">
+            <v>17-Arar Othaim Mall</v>
+          </cell>
+          <cell r="E45">
+            <v>95000</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="B46" t="str">
+            <v>22-Tabuk Park</v>
+          </cell>
+          <cell r="E46">
+            <v>490000</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="B47" t="str">
+            <v>23-Alia Mall Madinah</v>
+          </cell>
+          <cell r="E47">
+            <v>620000</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="B48" t="str">
+            <v>24-Yanbu Dana Mall</v>
+          </cell>
+          <cell r="E48">
+            <v>250000</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="B49" t="str">
+            <v>26-Al-Noor Mall Madinah</v>
+          </cell>
+          <cell r="E49">
+            <v>520000</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="B50" t="str">
+            <v>44-Al-Jouf Center</v>
+          </cell>
+          <cell r="E50">
+            <v>90000</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="B51" t="str">
+            <v>TOTAL</v>
+          </cell>
+          <cell r="E51">
+            <v>2065000</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="B53" t="str">
+            <v>16-Ehsa Othaim Mall</v>
+          </cell>
+          <cell r="E53">
+            <v>625000</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="B54" t="str">
+            <v>27-Dhahran Mall khobar</v>
+          </cell>
+          <cell r="E54">
+            <v>1250000</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="B55" t="str">
+            <v>28-Al Nakheel Mall Dammam</v>
+          </cell>
+          <cell r="E55">
+            <v>850000</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="B56" t="str">
+            <v>36-Al jubail Mall</v>
+          </cell>
+          <cell r="E56">
+            <v>240000</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="B57" t="str">
+            <v>42-Dareen Mall Dammam</v>
+          </cell>
+          <cell r="E57">
+            <v>400000</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="B58" t="str">
+            <v>49-AlAhsa Mall</v>
+          </cell>
+          <cell r="E58">
+            <v>290000</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="B59" t="str">
+            <v>TOTAL</v>
+          </cell>
+          <cell r="E59">
+            <v>3655000</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="B61" t="str">
+            <v>21-Abha Al_Rashid Mall New</v>
+          </cell>
+          <cell r="E61">
+            <v>650000</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="B62" t="str">
+            <v>43-Mujan Park</v>
+          </cell>
+          <cell r="E62">
+            <v>500000</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="B63" t="str">
+            <v>52-Al_Baha Mall</v>
+          </cell>
+          <cell r="E63">
+            <v>180000</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="B64" t="str">
+            <v>TOTAL</v>
+          </cell>
+          <cell r="E64">
+            <v>1330000</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="B66" t="str">
+            <v>06-Red Sea Mall</v>
+          </cell>
+          <cell r="E66">
+            <v>920000</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="B67" t="str">
+            <v>13-Al-Yasmin Mall</v>
+          </cell>
+          <cell r="E67">
+            <v>590000</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="B68" t="str">
+            <v>54-THE VILLAGE</v>
+          </cell>
+          <cell r="E68">
+            <v>700000</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="B69" t="str">
+            <v>TOTAL</v>
+          </cell>
+          <cell r="E69">
+            <v>2210000</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="B71" t="str">
+            <v>PLATFORMS</v>
+          </cell>
+          <cell r="E71">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="B72" t="str">
+            <v>Warehouse</v>
+          </cell>
+          <cell r="E72">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="B73" t="str">
+            <v>TOTAL</v>
+          </cell>
+          <cell r="E73">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="B75" t="str">
+            <v>GRAND TOTAL</v>
+          </cell>
+          <cell r="E75">
+            <v>22050000</v>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="B77" t="str">
+            <v>GRAND TOTAL</v>
+          </cell>
+          <cell r="E77">
+            <v>22050000</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -656,10 +1294,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F118E192-427D-47FE-9BEE-099737C33C3E}">
-  <dimension ref="A1:B50"/>
+  <dimension ref="A1:E48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54"/>
+      <selection activeCell="C1" sqref="C1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -668,408 +1306,870 @@
     <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2">
+        <f>_xlfn.XLOOKUP(A2,[1]Target!$B:$B,[1]Target!$E:$E)</f>
+        <v>680000</v>
+      </c>
+      <c r="D2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3">
+        <f>_xlfn.XLOOKUP(A3,[1]Target!$B:$B,[1]Target!$E:$E)</f>
+        <v>280000</v>
+      </c>
+      <c r="D3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4">
+        <f>_xlfn.XLOOKUP(A4,[1]Target!$B:$B,[1]Target!$E:$E)</f>
+        <v>920000</v>
+      </c>
+      <c r="D4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <f>_xlfn.XLOOKUP(A5,[1]Target!$B:$B,[1]Target!$E:$E)</f>
+        <v>600000</v>
+      </c>
+      <c r="D5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <f>_xlfn.XLOOKUP(A6,[1]Target!$B:$B,[1]Target!$E:$E)</f>
+        <v>360000</v>
+      </c>
+      <c r="D6" t="s">
+        <v>99</v>
+      </c>
+      <c r="E6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <f>_xlfn.XLOOKUP(A7,[1]Target!$B:$B,[1]Target!$E:$E)</f>
+        <v>590000</v>
+      </c>
+      <c r="D7" t="s">
+        <v>99</v>
+      </c>
+      <c r="E7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
       <c r="B8" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <f>_xlfn.XLOOKUP(A8,[1]Target!$B:$B,[1]Target!$E:$E)</f>
+        <v>330000</v>
+      </c>
+      <c r="D8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
       <c r="B9" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <f>_xlfn.XLOOKUP(A9,[1]Target!$B:$B,[1]Target!$E:$E)</f>
+        <v>620000</v>
+      </c>
+      <c r="D9" t="s">
+        <v>99</v>
+      </c>
+      <c r="E9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>18</v>
       </c>
       <c r="B10" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <f>_xlfn.XLOOKUP(A10,[1]Target!$B:$B,[1]Target!$E:$E)</f>
+        <v>135000</v>
+      </c>
+      <c r="D10" t="s">
+        <v>99</v>
+      </c>
+      <c r="E10" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>20</v>
       </c>
       <c r="B11" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <f>_xlfn.XLOOKUP(A11,[1]Target!$B:$B,[1]Target!$E:$E)</f>
+        <v>700000</v>
+      </c>
+      <c r="D11" t="s">
+        <v>99</v>
+      </c>
+      <c r="E11" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <f>_xlfn.XLOOKUP(A12,[1]Target!$B:$B,[1]Target!$E:$E)</f>
+        <v>350000</v>
+      </c>
+      <c r="D12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E12" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>24</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C13">
+        <f>_xlfn.XLOOKUP(A13,[1]Target!$B:$B,[1]Target!$E:$E)</f>
+        <v>220000</v>
+      </c>
+      <c r="D13" t="s">
+        <v>99</v>
+      </c>
+      <c r="E13" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>26</v>
       </c>
       <c r="B14" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <f>_xlfn.XLOOKUP(A14,[1]Target!$B:$B,[1]Target!$E:$E)</f>
+        <v>680000</v>
+      </c>
+      <c r="D14" t="s">
+        <v>100</v>
+      </c>
+      <c r="E14" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>28</v>
       </c>
       <c r="B15" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <f>_xlfn.XLOOKUP(A15,[1]Target!$B:$B,[1]Target!$E:$E)</f>
+        <v>270000</v>
+      </c>
+      <c r="D15" t="s">
+        <v>100</v>
+      </c>
+      <c r="E15" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>30</v>
       </c>
       <c r="B16" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <f>_xlfn.XLOOKUP(A16,[1]Target!$B:$B,[1]Target!$E:$E)</f>
+        <v>270000</v>
+      </c>
+      <c r="D16" t="s">
+        <v>100</v>
+      </c>
+      <c r="E16" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>32</v>
       </c>
       <c r="B17" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17">
+        <f>_xlfn.XLOOKUP(A17,[1]Target!$B:$B,[1]Target!$E:$E)</f>
+        <v>920000</v>
+      </c>
+      <c r="D17" t="s">
+        <v>100</v>
+      </c>
+      <c r="E17" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>34</v>
       </c>
       <c r="B18" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18">
+        <f>_xlfn.XLOOKUP(A18,[1]Target!$B:$B,[1]Target!$E:$E)</f>
+        <v>300000</v>
+      </c>
+      <c r="D18" t="s">
+        <v>100</v>
+      </c>
+      <c r="E18" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>36</v>
       </c>
       <c r="B19" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19">
+        <f>_xlfn.XLOOKUP(A19,[1]Target!$B:$B,[1]Target!$E:$E)</f>
+        <v>260000</v>
+      </c>
+      <c r="D19" t="s">
+        <v>100</v>
+      </c>
+      <c r="E19" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>38</v>
       </c>
       <c r="B20" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C20">
+        <f>_xlfn.XLOOKUP(A20,[1]Target!$B:$B,[1]Target!$E:$E)</f>
+        <v>660000</v>
+      </c>
+      <c r="D20" t="s">
+        <v>100</v>
+      </c>
+      <c r="E20" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>40</v>
       </c>
       <c r="B21" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C21">
+        <f>_xlfn.XLOOKUP(A21,[1]Target!$B:$B,[1]Target!$E:$E)</f>
+        <v>330000</v>
+      </c>
+      <c r="D21" t="s">
+        <v>100</v>
+      </c>
+      <c r="E21" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>42</v>
       </c>
       <c r="B22" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C22">
+        <f>_xlfn.XLOOKUP(A22,[1]Target!$B:$B,[1]Target!$E:$E)</f>
+        <v>360000</v>
+      </c>
+      <c r="D22" t="s">
+        <v>100</v>
+      </c>
+      <c r="E22" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>44</v>
       </c>
       <c r="B23" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C23">
+        <f>_xlfn.XLOOKUP(A23,[1]Target!$B:$B,[1]Target!$E:$E)</f>
+        <v>530000</v>
+      </c>
+      <c r="D23" t="s">
+        <v>100</v>
+      </c>
+      <c r="E23" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>46</v>
       </c>
       <c r="B24" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C24">
+        <f>_xlfn.XLOOKUP(A24,[1]Target!$B:$B,[1]Target!$E:$E)</f>
+        <v>530000</v>
+      </c>
+      <c r="D24" t="s">
+        <v>100</v>
+      </c>
+      <c r="E24" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>48</v>
       </c>
       <c r="B25" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C25">
+        <f>_xlfn.XLOOKUP(A25,[1]Target!$B:$B,[1]Target!$E:$E)</f>
+        <v>500000</v>
+      </c>
+      <c r="D25" t="s">
+        <v>100</v>
+      </c>
+      <c r="E25" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>50</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C26">
+        <f>_xlfn.XLOOKUP(A26,[1]Target!$B:$B,[1]Target!$E:$E)</f>
+        <v>530000</v>
+      </c>
+      <c r="D26" t="s">
+        <v>100</v>
+      </c>
+      <c r="E26" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>52</v>
       </c>
       <c r="B27" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C27">
+        <f>_xlfn.XLOOKUP(A27,[1]Target!$B:$B,[1]Target!$E:$E)</f>
+        <v>990000</v>
+      </c>
+      <c r="D27" t="s">
+        <v>101</v>
+      </c>
+      <c r="E27" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>54</v>
       </c>
       <c r="B28" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C28">
+        <f>_xlfn.XLOOKUP(A28,[1]Target!$B:$B,[1]Target!$E:$E)</f>
+        <v>380000</v>
+      </c>
+      <c r="D28" t="s">
+        <v>101</v>
+      </c>
+      <c r="E28" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>56</v>
       </c>
       <c r="B29" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C29">
+        <f>_xlfn.XLOOKUP(A29,[1]Target!$B:$B,[1]Target!$E:$E)</f>
+        <v>370000</v>
+      </c>
+      <c r="D29" t="s">
+        <v>101</v>
+      </c>
+      <c r="E29" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>58</v>
       </c>
       <c r="B30" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C30">
+        <f>_xlfn.XLOOKUP(A30,[1]Target!$B:$B,[1]Target!$E:$E)</f>
+        <v>370000</v>
+      </c>
+      <c r="D30" t="s">
+        <v>102</v>
+      </c>
+      <c r="E30" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>60</v>
       </c>
       <c r="B31" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C31">
+        <f>_xlfn.XLOOKUP(A31,[1]Target!$B:$B,[1]Target!$E:$E)</f>
+        <v>175000</v>
+      </c>
+      <c r="D31" t="s">
+        <v>102</v>
+      </c>
+      <c r="E31" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>62</v>
       </c>
       <c r="B32" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C32">
+        <f>_xlfn.XLOOKUP(A32,[1]Target!$B:$B,[1]Target!$E:$E)</f>
+        <v>620000</v>
+      </c>
+      <c r="D32" t="s">
+        <v>103</v>
+      </c>
+      <c r="E32" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>64</v>
       </c>
       <c r="B33" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C33">
+        <f>_xlfn.XLOOKUP(A33,[1]Target!$B:$B,[1]Target!$E:$E)</f>
+        <v>520000</v>
+      </c>
+      <c r="D33" t="s">
+        <v>103</v>
+      </c>
+      <c r="E33" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>66</v>
       </c>
       <c r="B34" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C34">
+        <f>_xlfn.XLOOKUP(A34,[1]Target!$B:$B,[1]Target!$E:$E)</f>
+        <v>250000</v>
+      </c>
+      <c r="D34" t="s">
+        <v>104</v>
+      </c>
+      <c r="E34" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>68</v>
       </c>
       <c r="B35" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C35">
+        <f>_xlfn.XLOOKUP(A35,[1]Target!$B:$B,[1]Target!$E:$E)</f>
+        <v>625000</v>
+      </c>
+      <c r="D35" t="s">
+        <v>105</v>
+      </c>
+      <c r="E35" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>70</v>
       </c>
       <c r="B36" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C36">
+        <f>_xlfn.XLOOKUP(A36,[1]Target!$B:$B,[1]Target!$E:$E)</f>
+        <v>290000</v>
+      </c>
+      <c r="D36" t="s">
+        <v>105</v>
+      </c>
+      <c r="E36" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>72</v>
       </c>
       <c r="B37" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C37">
+        <f>_xlfn.XLOOKUP(A37,[1]Target!$B:$B,[1]Target!$E:$E)</f>
+        <v>95000</v>
+      </c>
+      <c r="D37" t="s">
+        <v>106</v>
+      </c>
+      <c r="E37" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>74</v>
       </c>
       <c r="B38" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C38">
+        <f>_xlfn.XLOOKUP(A38,[1]Target!$B:$B,[1]Target!$E:$E)</f>
+        <v>390000</v>
+      </c>
+      <c r="D38" t="s">
+        <v>107</v>
+      </c>
+      <c r="E38" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>76</v>
       </c>
       <c r="B39" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C39">
+        <f>_xlfn.XLOOKUP(A39,[1]Target!$B:$B,[1]Target!$E:$E)</f>
+        <v>650000</v>
+      </c>
+      <c r="D39" t="s">
+        <v>108</v>
+      </c>
+      <c r="E39" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>78</v>
       </c>
       <c r="B40" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C40">
+        <f>_xlfn.XLOOKUP(A40,[1]Target!$B:$B,[1]Target!$E:$E)</f>
+        <v>500000</v>
+      </c>
+      <c r="D40" t="s">
+        <v>108</v>
+      </c>
+      <c r="E40" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>80</v>
       </c>
       <c r="B41" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C41">
+        <f>_xlfn.XLOOKUP(A41,[1]Target!$B:$B,[1]Target!$E:$E)</f>
+        <v>180000</v>
+      </c>
+      <c r="D41" t="s">
+        <v>108</v>
+      </c>
+      <c r="E41" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>82</v>
       </c>
       <c r="B42" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C42">
+        <f>_xlfn.XLOOKUP(A42,[1]Target!$B:$B,[1]Target!$E:$E)</f>
+        <v>490000</v>
+      </c>
+      <c r="D42" t="s">
+        <v>109</v>
+      </c>
+      <c r="E42" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>84</v>
       </c>
       <c r="B43" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C43">
+        <f>_xlfn.XLOOKUP(A43,[1]Target!$B:$B,[1]Target!$E:$E)</f>
+        <v>1250000</v>
+      </c>
+      <c r="D43" t="s">
+        <v>110</v>
+      </c>
+      <c r="E43" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>86</v>
       </c>
       <c r="B44" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C44">
+        <f>_xlfn.XLOOKUP(A44,[1]Target!$B:$B,[1]Target!$E:$E)</f>
+        <v>850000</v>
+      </c>
+      <c r="D44" t="s">
+        <v>110</v>
+      </c>
+      <c r="E44" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>88</v>
       </c>
       <c r="B45" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C45">
+        <f>_xlfn.XLOOKUP(A45,[1]Target!$B:$B,[1]Target!$E:$E)</f>
+        <v>400000</v>
+      </c>
+      <c r="D45" t="s">
+        <v>110</v>
+      </c>
+      <c r="E45" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>90</v>
       </c>
       <c r="B46" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C46">
+        <f>_xlfn.XLOOKUP(A46,[1]Target!$B:$B,[1]Target!$E:$E)</f>
+        <v>240000</v>
+      </c>
+      <c r="D46" t="s">
+        <v>110</v>
+      </c>
+      <c r="E46" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>92</v>
       </c>
       <c r="B47" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C47">
+        <f>_xlfn.XLOOKUP(A47,[1]Target!$B:$B,[1]Target!$E:$E)</f>
+        <v>90000</v>
+      </c>
+      <c r="D47" t="s">
+        <v>111</v>
+      </c>
+      <c r="E47" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>94</v>
       </c>
       <c r="B48" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>96</v>
-      </c>
-      <c r="B49" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>98</v>
-      </c>
-      <c r="B50" t="s">
-        <v>99</v>
+      <c r="C48">
+        <f>_xlfn.XLOOKUP(A48,[1]Target!$B:$B,[1]Target!$E:$E)</f>
+        <v>400000</v>
+      </c>
+      <c r="D48" t="s">
+        <v>112</v>
+      </c>
+      <c r="E48" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B50" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>